--- a/лаби.xlsx
+++ b/лаби.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irina\Desktop\ПП\САТПР\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13691F33-D08A-40FA-AC92-DF9B5875A8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952C990A-B5B5-4891-843F-2443961DFAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{E5BFFAB6-470C-44BC-AE46-3C83DDF04B8F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" activeTab="1" xr2:uid="{E5BFFAB6-470C-44BC-AE46-3C83DDF04B8F}"/>
   </bookViews>
   <sheets>
     <sheet name="лаб 1" sheetId="1" r:id="rId1"/>
+    <sheet name="лаб 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="39">
   <si>
     <t>завдання 1</t>
   </si>
@@ -123,12 +124,93 @@
   <si>
     <t>функції корисності кожної альтернативи</t>
   </si>
+  <si>
+    <t>Σ</t>
+  </si>
+  <si>
+    <t>λ</t>
+  </si>
+  <si>
+    <t>OC</t>
+  </si>
+  <si>
+    <r>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>норм</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>Wнорм</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,8 +256,55 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,6 +320,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -357,6 +498,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,6 +534,1259 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="1" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>W</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" b="1" i="1" u="none" strike="noStrike" baseline="-25000">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>норм</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'лаб 2'!$K$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'лаб 2'!$J$21:$J$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>К1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>К2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>К3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'лаб 2'!$K$21:$K$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.26034386949788474</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23286926431047791</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5755164077501983</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-77D5-4E72-AE1A-B22782B2B8E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'лаб 2'!$L$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'лаб 2'!$J$21:$J$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>К1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>К2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>К3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'лаб 2'!$L$21:$L$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.10520576497359671</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13846489299173481</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11290983337556391</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-77D5-4E72-AE1A-B22782B2B8E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'лаб 2'!$M$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'лаб 2'!$J$21:$J$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>К1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>К2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>К3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'лаб 2'!$M$21:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.8214658972260441E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54499495848121426</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7325533008788029E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-77D5-4E72-AE1A-B22782B2B8E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'лаб 2'!$N$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'лаб 2'!$J$21:$J$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>К1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>К2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>К3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'лаб 2'!$N$21:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.57623570655625811</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.367088421657301E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26424822586544972</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-77D5-4E72-AE1A-B22782B2B8E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="602424447"/>
+        <c:axId val="602424927"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="602424447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="602424927"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="602424927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="602424447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>536575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{949F7843-FB34-AC82-3793-734FF52592E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5413375" y="1565275"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="LID4096" sz="1100" i="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>536575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95AD81FF-8234-C262-C424-B94EF168EEE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5413375" y="1565275"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="LID4096" sz="1100" i="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94A35520-7502-8156-4EF4-62A089C29CB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -673,7 +2088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C2A5FC-8CDB-431D-81DC-2FDFE63AE84D}">
   <dimension ref="B2:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+    <sheetView topLeftCell="C10" workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
@@ -1357,4 +2772,754 @@
     <ignoredError sqref="J14:J18 L14:L18" formula="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6305D2D-4660-4128-90A2-86D652A69730}">
+  <dimension ref="B3:N35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="3"/>
+      <c r="C3" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B4" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9">
+        <v>7</v>
+      </c>
+      <c r="E4" s="9">
+        <v>5</v>
+      </c>
+      <c r="F4" s="9">
+        <f>(C4*D4*E4)^(1/3)</f>
+        <v>3.2710663101885888</v>
+      </c>
+      <c r="G4" s="30">
+        <f>F4/$F$7</f>
+        <v>0.73064467136112943</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4">
+        <f>C7*G4+D7*G5+E7*G6</f>
+        <v>3.0648875798728188</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B5" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="9">
+        <f>1/7</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" ref="F5:F6" si="0">(C5*D5*E5)^(1/3)</f>
+        <v>0.36246012433429736</v>
+      </c>
+      <c r="G5" s="27">
+        <f t="shared" ref="G5:G7" si="1">F5/$F$7</f>
+        <v>8.0961231999750694E-2</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5">
+        <f>(J4-3)/2</f>
+        <v>3.2443789936409395E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B6" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="9">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="9">
+        <v>3</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9">
+        <f t="shared" si="0"/>
+        <v>0.84343266530174932</v>
+      </c>
+      <c r="G6" s="27">
+        <f t="shared" si="1"/>
+        <v>0.18839409663911982</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6">
+        <f>J5/0.58</f>
+        <v>5.5937568855878271E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B7" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="9">
+        <f>SUM(C4:C6)</f>
+        <v>1.3428571428571427</v>
+      </c>
+      <c r="D7" s="9">
+        <f t="shared" ref="D7:E7" si="2">SUM(D4:D6)</f>
+        <v>11</v>
+      </c>
+      <c r="E7" s="9">
+        <f t="shared" si="2"/>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="F7" s="9">
+        <f>SUM(F4:F6)</f>
+        <v>4.4769590998246356</v>
+      </c>
+      <c r="G7" s="27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B11" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+    </row>
+    <row r="12" spans="2:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B13" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9">
+        <v>3</v>
+      </c>
+      <c r="E13" s="9">
+        <v>5</v>
+      </c>
+      <c r="F13" s="9">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G13" s="9">
+        <f>(C13*D13*E13*F13)^(1/4)</f>
+        <v>1.4953487812212205</v>
+      </c>
+      <c r="H13" s="9">
+        <f>G13/$G$17</f>
+        <v>0.26034386949788474</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B14" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="9">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9">
+        <v>2</v>
+      </c>
+      <c r="F14" s="9">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="G14" s="9">
+        <f t="shared" ref="G14:G17" si="3">(C14*D14*E14*F14)^(1/4)</f>
+        <v>0.60427507947135362</v>
+      </c>
+      <c r="H14" s="9">
+        <f t="shared" ref="H14:H16" si="4">G14/$G$17</f>
+        <v>0.10520576497359671</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B15" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="9">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="D15" s="9">
+        <f>1/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1</v>
+      </c>
+      <c r="F15" s="9">
+        <f>1/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="G15" s="9">
+        <f t="shared" si="3"/>
+        <v>0.33437015248821106</v>
+      </c>
+      <c r="H15" s="9">
+        <f t="shared" si="4"/>
+        <v>5.8214658972260441E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B16" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="9">
+        <v>3</v>
+      </c>
+      <c r="D16" s="9">
+        <v>5</v>
+      </c>
+      <c r="E16" s="9">
+        <v>8</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1</v>
+      </c>
+      <c r="G16" s="9">
+        <f t="shared" si="3"/>
+        <v>3.3097509196468731</v>
+      </c>
+      <c r="H16" s="30">
+        <f t="shared" si="4"/>
+        <v>0.57623570655625811</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B17" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="9">
+        <f>SUM(C13:C16)</f>
+        <v>4.5333333333333332</v>
+      </c>
+      <c r="D17" s="9">
+        <f t="shared" ref="D17:H17" si="5">SUM(D13:D16)</f>
+        <v>9.5</v>
+      </c>
+      <c r="E17" s="9">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="5"/>
+        <v>1.6583333333333332</v>
+      </c>
+      <c r="G17" s="9">
+        <f t="shared" si="5"/>
+        <v>5.7437449328276582</v>
+      </c>
+      <c r="H17" s="9">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="J19" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B20" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="K20" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="N20" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B21" s="24"/>
+      <c r="C21" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="K21" s="21">
+        <v>0.26034386949788474</v>
+      </c>
+      <c r="L21" s="21">
+        <v>0.10520576497359671</v>
+      </c>
+      <c r="M21" s="21">
+        <v>5.8214658972260441E-2</v>
+      </c>
+      <c r="N21" s="21">
+        <v>0.57623570655625811</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B22" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="9">
+        <v>1</v>
+      </c>
+      <c r="D22" s="9">
+        <v>2</v>
+      </c>
+      <c r="E22" s="9">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F22" s="9">
+        <v>3</v>
+      </c>
+      <c r="G22" s="9">
+        <f>(C22*D22*E22*F22)^(1/4)</f>
+        <v>1.189207115002721</v>
+      </c>
+      <c r="H22" s="9">
+        <f>G22/$G$26</f>
+        <v>0.23286926431047791</v>
+      </c>
+      <c r="J22" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="21">
+        <v>0.23286926431047791</v>
+      </c>
+      <c r="L22" s="21">
+        <v>0.13846489299173481</v>
+      </c>
+      <c r="M22" s="21">
+        <v>0.54499495848121426</v>
+      </c>
+      <c r="N22" s="21">
+        <v>8.367088421657301E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B23" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="9">
+        <f>1/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9">
+        <f>1/4</f>
+        <v>0.25</v>
+      </c>
+      <c r="F23" s="9">
+        <v>2</v>
+      </c>
+      <c r="G23" s="9">
+        <f t="shared" ref="G23:G25" si="6">(C23*D23*E23*F23)^(1/4)</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="H23" s="9">
+        <f t="shared" ref="H23:H26" si="7">G23/$G$26</f>
+        <v>0.13846489299173481</v>
+      </c>
+      <c r="J23" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="K23" s="21">
+        <v>0.5755164077501983</v>
+      </c>
+      <c r="L23" s="21">
+        <v>0.11290983337556391</v>
+      </c>
+      <c r="M23" s="21">
+        <v>4.7325533008788029E-2</v>
+      </c>
+      <c r="N23" s="21">
+        <v>0.26424822586544972</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B24" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="9">
+        <v>3</v>
+      </c>
+      <c r="D24" s="9">
+        <v>4</v>
+      </c>
+      <c r="E24" s="9">
+        <v>1</v>
+      </c>
+      <c r="F24" s="9">
+        <v>5</v>
+      </c>
+      <c r="G24" s="9">
+        <f t="shared" si="6"/>
+        <v>2.7831576837137404</v>
+      </c>
+      <c r="H24" s="30">
+        <f t="shared" si="7"/>
+        <v>0.54499495848121426</v>
+      </c>
+      <c r="J24" s="34"/>
+      <c r="K24" s="33"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B25" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="9">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D25" s="9">
+        <f>1/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="9">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="F25" s="9">
+        <v>1</v>
+      </c>
+      <c r="G25" s="9">
+        <f t="shared" si="6"/>
+        <v>0.42728700639623407</v>
+      </c>
+      <c r="H25" s="9">
+        <f t="shared" si="7"/>
+        <v>8.367088421657301E-2</v>
+      </c>
+      <c r="J25" s="34"/>
+      <c r="K25" s="33"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B26" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="9">
+        <f>SUM(C22:C25)</f>
+        <v>4.833333333333333</v>
+      </c>
+      <c r="D26" s="9">
+        <f t="shared" ref="D26" si="8">SUM(D22:D25)</f>
+        <v>7.5</v>
+      </c>
+      <c r="E26" s="9">
+        <f t="shared" ref="E26" si="9">SUM(E22:E25)</f>
+        <v>1.7833333333333332</v>
+      </c>
+      <c r="F26" s="9">
+        <f t="shared" ref="F26" si="10">SUM(F22:F25)</f>
+        <v>11</v>
+      </c>
+      <c r="G26" s="9">
+        <f t="shared" ref="G26" si="11">SUM(G22:G25)</f>
+        <v>5.1067585862992431</v>
+      </c>
+      <c r="H26" s="9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B29" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+    </row>
+    <row r="30" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B30" s="24"/>
+      <c r="C30" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B31" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="9">
+        <v>1</v>
+      </c>
+      <c r="D31" s="9">
+        <v>5</v>
+      </c>
+      <c r="E31" s="9">
+        <v>9</v>
+      </c>
+      <c r="F31" s="9">
+        <v>3</v>
+      </c>
+      <c r="G31" s="9">
+        <f>(C31*D31*E31*F31)^(1/4)</f>
+        <v>3.4086580994024982</v>
+      </c>
+      <c r="H31" s="30">
+        <f>G31/$G$35</f>
+        <v>0.5755164077501983</v>
+      </c>
+      <c r="J31" s="34"/>
+      <c r="K31" s="33"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B32" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="9">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="D32" s="9">
+        <v>1</v>
+      </c>
+      <c r="E32" s="9">
+        <v>3</v>
+      </c>
+      <c r="F32" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G32" s="9">
+        <f t="shared" ref="G32:G34" si="12">(C32*D32*E32*F32)^(1/4)</f>
+        <v>0.66874030497642201</v>
+      </c>
+      <c r="H32" s="9">
+        <f t="shared" ref="H32:H35" si="13">G32/$G$35</f>
+        <v>0.11290983337556391</v>
+      </c>
+      <c r="J32" s="34"/>
+      <c r="K32" s="33"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B33" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="9">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E33" s="9">
+        <v>1</v>
+      </c>
+      <c r="F33" s="9">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G33" s="9">
+        <f t="shared" si="12"/>
+        <v>0.2802988050845715</v>
+      </c>
+      <c r="H33" s="9">
+        <f t="shared" si="13"/>
+        <v>4.7325533008788029E-2</v>
+      </c>
+      <c r="J33" s="34"/>
+      <c r="K33" s="33"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B34" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D34" s="9">
+        <v>3</v>
+      </c>
+      <c r="E34" s="9">
+        <v>6</v>
+      </c>
+      <c r="F34" s="9">
+        <v>1</v>
+      </c>
+      <c r="G34" s="9">
+        <f t="shared" si="12"/>
+        <v>1.5650845800732873</v>
+      </c>
+      <c r="H34" s="9">
+        <f t="shared" si="13"/>
+        <v>0.26424822586544972</v>
+      </c>
+      <c r="J34" s="34"/>
+      <c r="K34" s="33"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B35" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="9">
+        <f>SUM(C31:C34)</f>
+        <v>1.6444444444444444</v>
+      </c>
+      <c r="D35" s="9">
+        <f t="shared" ref="D35" si="14">SUM(D31:D34)</f>
+        <v>9.3333333333333321</v>
+      </c>
+      <c r="E35" s="9">
+        <f t="shared" ref="E35" si="15">SUM(E31:E34)</f>
+        <v>19</v>
+      </c>
+      <c r="F35" s="9">
+        <f t="shared" ref="F35" si="16">SUM(F31:F34)</f>
+        <v>4.5</v>
+      </c>
+      <c r="G35" s="9">
+        <f t="shared" ref="G35" si="17">SUM(G31:G34)</f>
+        <v>5.9227817895367796</v>
+      </c>
+      <c r="H35" s="9">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B29:H29"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/лаби.xlsx
+++ b/лаби.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irina\Desktop\ПП\САТПР\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952C990A-B5B5-4891-843F-2443961DFAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31602DD-8325-4C7A-AC37-BAA07354CF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" activeTab="1" xr2:uid="{E5BFFAB6-470C-44BC-AE46-3C83DDF04B8F}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="40">
   <si>
     <t>завдання 1</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>Wнорм</t>
+  </si>
+  <si>
+    <t>Fi</t>
   </si>
 </sst>
 </file>
@@ -458,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -492,13 +495,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -506,19 +502,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,75 +546,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="1" i="1" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>W</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1400" b="1" i="1" u="none" strike="noStrike" baseline="-25000">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>норм</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:radarChart>
@@ -629,7 +557,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'лаб 2'!$K$20</c:f>
+              <c:f>'лаб 2'!$J$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -652,7 +580,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'лаб 2'!$J$21:$J$23</c:f>
+              <c:f>'лаб 2'!$K$13:$M$13</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -669,7 +597,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'лаб 2'!$K$21:$K$23</c:f>
+              <c:f>'лаб 2'!$K$14:$M$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -687,7 +615,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-77D5-4E72-AE1A-B22782B2B8E7}"/>
+              <c16:uniqueId val="{00000000-1579-47E2-B369-F561F5F3A08F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -696,7 +624,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'лаб 2'!$L$20</c:f>
+              <c:f>'лаб 2'!$J$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -719,7 +647,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'лаб 2'!$J$21:$J$23</c:f>
+              <c:f>'лаб 2'!$K$13:$M$13</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -736,7 +664,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'лаб 2'!$L$21:$L$23</c:f>
+              <c:f>'лаб 2'!$K$15:$M$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -754,7 +682,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-77D5-4E72-AE1A-B22782B2B8E7}"/>
+              <c16:uniqueId val="{00000001-1579-47E2-B369-F561F5F3A08F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -763,7 +691,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'лаб 2'!$M$20</c:f>
+              <c:f>'лаб 2'!$J$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -786,7 +714,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'лаб 2'!$J$21:$J$23</c:f>
+              <c:f>'лаб 2'!$K$13:$M$13</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -803,7 +731,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'лаб 2'!$M$21:$M$23</c:f>
+              <c:f>'лаб 2'!$K$16:$M$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -821,7 +749,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-77D5-4E72-AE1A-B22782B2B8E7}"/>
+              <c16:uniqueId val="{00000002-1579-47E2-B369-F561F5F3A08F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -830,7 +758,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'лаб 2'!$N$20</c:f>
+              <c:f>'лаб 2'!$J$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -853,7 +781,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'лаб 2'!$J$21:$J$23</c:f>
+              <c:f>'лаб 2'!$K$13:$M$13</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -870,7 +798,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'лаб 2'!$N$21:$N$23</c:f>
+              <c:f>'лаб 2'!$K$17:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -888,7 +816,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-77D5-4E72-AE1A-B22782B2B8E7}"/>
+              <c16:uniqueId val="{00000003-1579-47E2-B369-F561F5F3A08F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -900,11 +828,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="602424447"/>
-        <c:axId val="602424927"/>
+        <c:axId val="158239568"/>
+        <c:axId val="158246768"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="602424447"/>
+        <c:axId val="158239568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -947,7 +875,7 @@
             <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602424927"/>
+        <c:crossAx val="158246768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -955,11 +883,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="602424927"/>
+        <c:axId val="158246768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -979,34 +907,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="602424447"/>
+        <c:crossAx val="158239568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1093,7 +994,341 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'лаб 2'!$R$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'лаб 2'!$Q$14:$Q$17</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>A1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>A4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'лаб 2'!$R$14:$R$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.31749613724270859</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10934986596021719</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5573544684635012E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47758045211243921</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-33CB-4297-A304-288B77072FD9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="153686656"/>
+        <c:axId val="153689056"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="153686656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="153689056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="153689056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="153686656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1606,6 +1841,509 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1752,23 +2490,23 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94A35520-7502-8156-4EF4-62A089C29CB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E00E9414-2EE5-F0E2-05F2-007D53D16EED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1781,6 +2519,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1972745-06C6-CB5F-7194-5641F8C029A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2101,11 +2875,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -2116,13 +2890,13 @@
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="2:20" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
     </row>
     <row r="4" spans="2:20" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
@@ -2322,27 +3096,27 @@
       </c>
     </row>
     <row r="11" spans="2:20" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
     </row>
     <row r="12" spans="2:20" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="O12" s="20" t="s">
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="O12" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
     </row>
     <row r="13" spans="2:20" ht="31" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
@@ -2776,10 +3550,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6305D2D-4660-4128-90A2-86D652A69730}">
-  <dimension ref="B3:N35"/>
+  <dimension ref="B3:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13:R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2788,26 +3562,26 @@
     <col min="11" max="11" width="9.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:18" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B3" s="3"/>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B4" s="24" t="s">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B4" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="9">
@@ -2823,11 +3597,11 @@
         <f>(C4*D4*E4)^(1/3)</f>
         <v>3.2710663101885888</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="25">
         <f>F4/$F$7</f>
         <v>0.73064467136112943</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="19" t="s">
         <v>29</v>
       </c>
       <c r="J4">
@@ -2835,8 +3609,8 @@
         <v>3.0648875798728188</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B5" s="24" t="s">
+    <row r="5" spans="2:18" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B5" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="9">
@@ -2854,11 +3628,11 @@
         <f t="shared" ref="F5:F6" si="0">(C5*D5*E5)^(1/3)</f>
         <v>0.36246012433429736</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="9">
         <f t="shared" ref="G5:G7" si="1">F5/$F$7</f>
         <v>8.0961231999750694E-2</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="20" t="s">
         <v>33</v>
       </c>
       <c r="J5">
@@ -2866,8 +3640,8 @@
         <v>3.2443789936409395E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B6" s="24" t="s">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B6" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="9">
@@ -2884,11 +3658,11 @@
         <f t="shared" si="0"/>
         <v>0.84343266530174932</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="9">
         <f t="shared" si="1"/>
         <v>0.18839409663911982</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="20" t="s">
         <v>30</v>
       </c>
       <c r="J6">
@@ -2896,8 +3670,8 @@
         <v>5.5937568855878271E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B7" s="28" t="s">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B7" s="24" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="9">
@@ -2916,47 +3690,45 @@
         <f>SUM(F4:F6)</f>
         <v>4.4769590998246356</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B11" s="31" t="s">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B11" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
     </row>
-    <row r="12" spans="2:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B12" s="24"/>
-      <c r="C12" s="24" t="s">
+    <row r="12" spans="2:18" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B12" s="21"/>
+      <c r="C12" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="H12" s="23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B13" s="24" t="s">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B13" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="9">
@@ -2980,9 +3752,25 @@
         <f>G13/$G$17</f>
         <v>0.26034386949788474</v>
       </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B14" s="24" t="s">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B14" s="21" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="9">
@@ -3000,16 +3788,38 @@
         <v>0.2</v>
       </c>
       <c r="G14" s="9">
-        <f t="shared" ref="G14:G17" si="3">(C14*D14*E14*F14)^(1/4)</f>
+        <f t="shared" ref="G14:G16" si="3">(C14*D14*E14*F14)^(1/4)</f>
         <v>0.60427507947135362</v>
       </c>
       <c r="H14" s="9">
         <f t="shared" ref="H14:H16" si="4">G14/$G$17</f>
         <v>0.10520576497359671</v>
       </c>
+      <c r="J14" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0.26034386949788474</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0.23286926431047791</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0.5755164077501983</v>
+      </c>
+      <c r="O14" s="9">
+        <v>0.73064467136112943</v>
+      </c>
+      <c r="Q14" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="R14" s="9">
+        <f>MMULT(K14:M14,$O$14:$O$16)</f>
+        <v>0.31749613724270859</v>
+      </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B15" s="24" t="s">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B15" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="9">
@@ -3035,9 +3845,31 @@
         <f t="shared" si="4"/>
         <v>5.8214658972260441E-2</v>
       </c>
+      <c r="J15" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0.10520576497359671</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0.13846489299173481</v>
+      </c>
+      <c r="M15" s="9">
+        <v>0.11290983337556391</v>
+      </c>
+      <c r="O15" s="9">
+        <v>8.0961231999750694E-2</v>
+      </c>
+      <c r="Q15" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="R15" s="9">
+        <f>MMULT(K15:M15,$O$14:$O$16)</f>
+        <v>0.10934986596021719</v>
+      </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B16" s="24" t="s">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B16" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="9">
@@ -3056,13 +3888,35 @@
         <f t="shared" si="3"/>
         <v>3.3097509196468731</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="25">
         <f t="shared" si="4"/>
         <v>0.57623570655625811</v>
       </c>
+      <c r="J16" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="9">
+        <v>5.8214658972260441E-2</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0.54499495848121426</v>
+      </c>
+      <c r="M16" s="9">
+        <v>4.7325533008788029E-2</v>
+      </c>
+      <c r="O16" s="9">
+        <v>0.18839409663911982</v>
+      </c>
+      <c r="Q16" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="R16" s="9">
+        <f>MMULT(K16:M16,$O$14:$O$16)</f>
+        <v>9.5573544684635012E-2</v>
+      </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B17" s="28" t="s">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B17" s="24" t="s">
         <v>28</v>
       </c>
       <c r="C17" s="9">
@@ -3089,77 +3943,67 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
+      <c r="J17" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0.57623570655625811</v>
+      </c>
+      <c r="L17" s="9">
+        <v>8.367088421657301E-2</v>
+      </c>
+      <c r="M17" s="9">
+        <v>0.26424822586544972</v>
+      </c>
+      <c r="Q17" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="R17" s="9">
+        <f>MMULT(K17:M17,$O$14:$O$16)</f>
+        <v>0.47758045211243921</v>
+      </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="J19" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B20" s="31" t="s">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B20" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="K20" s="24" t="s">
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+    </row>
+    <row r="21" spans="2:18" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B21" s="21"/>
+      <c r="C21" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="L20" s="24" t="s">
+      <c r="D21" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="M20" s="24" t="s">
+      <c r="E21" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="N20" s="24" t="s">
+      <c r="F21" s="21" t="s">
         <v>37</v>
       </c>
+      <c r="G21" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="21" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B21" s="24"/>
-      <c r="C21" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="K21" s="21">
-        <v>0.26034386949788474</v>
-      </c>
-      <c r="L21" s="21">
-        <v>0.10520576497359671</v>
-      </c>
-      <c r="M21" s="21">
-        <v>5.8214658972260441E-2</v>
-      </c>
-      <c r="N21" s="21">
-        <v>0.57623570655625811</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B22" s="24" t="s">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B22" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="9">
@@ -3183,24 +4027,9 @@
         <f>G22/$G$26</f>
         <v>0.23286926431047791</v>
       </c>
-      <c r="J22" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="21">
-        <v>0.23286926431047791</v>
-      </c>
-      <c r="L22" s="21">
-        <v>0.13846489299173481</v>
-      </c>
-      <c r="M22" s="21">
-        <v>0.54499495848121426</v>
-      </c>
-      <c r="N22" s="21">
-        <v>8.367088421657301E-2</v>
-      </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B23" s="24" t="s">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B23" s="21" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="9">
@@ -3225,24 +4054,9 @@
         <f t="shared" ref="H23:H26" si="7">G23/$G$26</f>
         <v>0.13846489299173481</v>
       </c>
-      <c r="J23" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="K23" s="21">
-        <v>0.5755164077501983</v>
-      </c>
-      <c r="L23" s="21">
-        <v>0.11290983337556391</v>
-      </c>
-      <c r="M23" s="21">
-        <v>4.7325533008788029E-2</v>
-      </c>
-      <c r="N23" s="21">
-        <v>0.26424822586544972</v>
-      </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B24" s="24" t="s">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B24" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C24" s="9">
@@ -3261,15 +4075,14 @@
         <f t="shared" si="6"/>
         <v>2.7831576837137404</v>
       </c>
-      <c r="H24" s="30">
+      <c r="H24" s="25">
         <f t="shared" si="7"/>
         <v>0.54499495848121426</v>
       </c>
-      <c r="J24" s="34"/>
-      <c r="K24" s="33"/>
+      <c r="J24" s="26"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B25" s="24" t="s">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B25" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="9">
@@ -3295,11 +4108,10 @@
         <f t="shared" si="7"/>
         <v>8.367088421657301E-2</v>
       </c>
-      <c r="J25" s="34"/>
-      <c r="K25" s="33"/>
+      <c r="J25" s="26"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B26" s="28" t="s">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B26" s="24" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="9">
@@ -3326,55 +4138,41 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B29" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
+    <row r="30" spans="2:18" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B30" s="21"/>
+      <c r="C30" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B29" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-    </row>
-    <row r="30" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B30" s="24"/>
-      <c r="C30" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="H30" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B31" s="24" t="s">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B31" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C31" s="9">
@@ -3393,15 +4191,14 @@
         <f>(C31*D31*E31*F31)^(1/4)</f>
         <v>3.4086580994024982</v>
       </c>
-      <c r="H31" s="30">
+      <c r="H31" s="25">
         <f>G31/$G$35</f>
         <v>0.5755164077501983</v>
       </c>
-      <c r="J31" s="34"/>
-      <c r="K31" s="33"/>
+      <c r="J31" s="26"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B32" s="24" t="s">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B32" s="21" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="9">
@@ -3425,11 +4222,10 @@
         <f t="shared" ref="H32:H35" si="13">G32/$G$35</f>
         <v>0.11290983337556391</v>
       </c>
-      <c r="J32" s="34"/>
-      <c r="K32" s="33"/>
+      <c r="J32" s="26"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B33" s="24" t="s">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C33" s="9">
@@ -3452,11 +4248,10 @@
         <f t="shared" si="13"/>
         <v>4.7325533008788029E-2</v>
       </c>
-      <c r="J33" s="34"/>
-      <c r="K33" s="33"/>
+      <c r="J33" s="26"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B34" s="24" t="s">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C34" s="9">
@@ -3479,11 +4274,10 @@
         <f t="shared" si="13"/>
         <v>0.26424822586544972</v>
       </c>
-      <c r="J34" s="34"/>
-      <c r="K34" s="33"/>
+      <c r="J34" s="26"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B35" s="28" t="s">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B35" s="24" t="s">
         <v>28</v>
       </c>
       <c r="C35" s="9">
@@ -3512,8 +4306,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="J19:N19"/>
+  <mergeCells count="3">
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B20:H20"/>
     <mergeCell ref="B29:H29"/>

--- a/лаби.xlsx
+++ b/лаби.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irina\Desktop\ПП\САТПР\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31602DD-8325-4C7A-AC37-BAA07354CF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254107E5-8F74-4F54-9443-713637798F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" activeTab="1" xr2:uid="{E5BFFAB6-470C-44BC-AE46-3C83DDF04B8F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" activeTab="2" xr2:uid="{E5BFFAB6-470C-44BC-AE46-3C83DDF04B8F}"/>
   </bookViews>
   <sheets>
     <sheet name="лаб 1" sheetId="1" r:id="rId1"/>
     <sheet name="лаб 2" sheetId="2" r:id="rId2"/>
+    <sheet name="лаб 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="74">
   <si>
     <t>завдання 1</t>
   </si>
@@ -207,6 +208,108 @@
   </si>
   <si>
     <t>Fi</t>
+  </si>
+  <si>
+    <t>Задача 9</t>
+  </si>
+  <si>
+    <t>збиток за непродаж</t>
+  </si>
+  <si>
+    <t>чистий прибуток за шт</t>
+  </si>
+  <si>
+    <t>ціна продажу</t>
+  </si>
+  <si>
+    <t>собівартість</t>
+  </si>
+  <si>
+    <t>пенси</t>
+  </si>
+  <si>
+    <t>попит на день, тис</t>
+  </si>
+  <si>
+    <t>число днів</t>
+  </si>
+  <si>
+    <t>ймовірність попиту</t>
+  </si>
+  <si>
+    <t>сплачено тис. шт</t>
+  </si>
+  <si>
+    <t>попит тис. шт</t>
+  </si>
+  <si>
+    <t>продано тис. шт</t>
+  </si>
+  <si>
+    <t>не продано тис. шт</t>
+  </si>
+  <si>
+    <t>очікуваний чистий дохід, тис пенсів</t>
+  </si>
+  <si>
+    <t>загальний очікуваний чистий дохід</t>
+  </si>
+  <si>
+    <t>скільки булочок випікати тис.шт?</t>
+  </si>
+  <si>
+    <t>середній очікуваний прибуток, тис пенсів</t>
+  </si>
+  <si>
+    <t>рекомендована к-ть булочок в день, тис шт</t>
+  </si>
+  <si>
+    <t>задача 11</t>
+  </si>
+  <si>
+    <t>$, за шт</t>
+  </si>
+  <si>
+    <t>ціна покупки</t>
+  </si>
+  <si>
+    <t>ціна розпродажу</t>
+  </si>
+  <si>
+    <t>чистий прибуток</t>
+  </si>
+  <si>
+    <t>збиток за розпродаж</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>сплачено, шт</t>
+  </si>
+  <si>
+    <t>попит, шт</t>
+  </si>
+  <si>
+    <t>продано, шт</t>
+  </si>
+  <si>
+    <t>не продано, шт</t>
+  </si>
+  <si>
+    <t>очікуваний чистий дохід, $</t>
+  </si>
+  <si>
+    <t xml:space="preserve">скільки булочок (шт) замовляти в день? </t>
+  </si>
+  <si>
+    <t>середній очікуваний прибуток, $</t>
+  </si>
+  <si>
+    <t>рекомендована к-ть замовлень булочок в день, шт</t>
   </si>
 </sst>
 </file>
@@ -307,7 +410,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,8 +441,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -457,11 +566,114 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -514,7 +726,75 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3552,8 +3832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6305D2D-4660-4128-90A2-86D652A69730}">
   <dimension ref="B3:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13:R17"/>
+    <sheetView topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3963,13 +4243,6 @@
         <v>0.47758045211243921</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-    </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B20" s="29" t="s">
         <v>3</v>
@@ -4315,4 +4588,2144 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2272034A-A06E-4A9D-ABD6-669E0DEF763D}">
+  <dimension ref="B2:S74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="21.1796875" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" customWidth="1"/>
+    <col min="10" max="10" width="4" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" style="34"/>
+    <col min="13" max="13" width="17.36328125" customWidth="1"/>
+    <col min="14" max="14" width="15.90625" customWidth="1"/>
+    <col min="15" max="15" width="14.54296875" customWidth="1"/>
+    <col min="16" max="16" width="15.1796875" customWidth="1"/>
+    <col min="17" max="17" width="17.54296875" customWidth="1"/>
+    <col min="18" max="18" width="32" customWidth="1"/>
+    <col min="19" max="19" width="31.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B2" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="J3" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="38">
+        <v>10</v>
+      </c>
+      <c r="L3" s="40"/>
+      <c r="M3" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q3" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="R3" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="S3" s="48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B4" s="3"/>
+      <c r="C4" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="36"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="39">
+        <f>E5</f>
+        <v>10</v>
+      </c>
+      <c r="M4" s="35">
+        <f>$F5/SUM($F$5:$F$9)</f>
+        <v>0.1</v>
+      </c>
+      <c r="N4" s="3">
+        <v>10</v>
+      </c>
+      <c r="O4" s="3">
+        <f>E5</f>
+        <v>10</v>
+      </c>
+      <c r="P4" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0</v>
+      </c>
+      <c r="R4" s="3">
+        <f>P4*$C$7-Q4*$C$8</f>
+        <v>100</v>
+      </c>
+      <c r="S4" s="31">
+        <f>SUMPRODUCT(R4:R8,M4:M8)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B5" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="3">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5</v>
+      </c>
+      <c r="J5" s="36"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="39">
+        <f t="shared" ref="L5:L8" si="0">E6</f>
+        <v>12</v>
+      </c>
+      <c r="M5" s="35">
+        <f t="shared" ref="M5:M8" si="1">$F6/SUM($F$5:$F$9)</f>
+        <v>0.2</v>
+      </c>
+      <c r="N5" s="3">
+        <v>10</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" ref="O5:O8" si="2">E6</f>
+        <v>12</v>
+      </c>
+      <c r="P5" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3">
+        <f t="shared" ref="R5:R8" si="3">P5*$C$7-Q5*$C$8</f>
+        <v>100</v>
+      </c>
+      <c r="S5" s="31"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B6" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="3">
+        <v>40</v>
+      </c>
+      <c r="E6" s="3">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3">
+        <v>10</v>
+      </c>
+      <c r="J6" s="36"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="39">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="M6" s="35">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="N6" s="3">
+        <v>10</v>
+      </c>
+      <c r="O6" s="3">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="P6" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="S6" s="31"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B7" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3">
+        <v>14</v>
+      </c>
+      <c r="F7" s="3">
+        <v>15</v>
+      </c>
+      <c r="J7" s="36"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="39">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="M7" s="35">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="N7" s="3">
+        <v>10</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="P7" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="S7" s="31"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B8" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="3">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3">
+        <v>16</v>
+      </c>
+      <c r="F8" s="3">
+        <v>15</v>
+      </c>
+      <c r="J8" s="36"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="39">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="M8" s="35">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="N8" s="3">
+        <v>10</v>
+      </c>
+      <c r="O8" s="3">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="P8" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="S8" s="31"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="E9" s="3">
+        <v>18</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5</v>
+      </c>
+      <c r="J9" s="36"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="40"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="J10" s="36"/>
+      <c r="K10" s="38">
+        <v>12</v>
+      </c>
+      <c r="L10" s="40"/>
+      <c r="M10" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="O10" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="P10" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q10" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="R10" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="S10" s="48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J11" s="36"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="39">
+        <f>E5</f>
+        <v>10</v>
+      </c>
+      <c r="M11" s="35">
+        <f>$F5/SUM($F$5:$F$9)</f>
+        <v>0.1</v>
+      </c>
+      <c r="N11" s="3">
+        <v>12</v>
+      </c>
+      <c r="O11" s="3">
+        <f>E5</f>
+        <v>10</v>
+      </c>
+      <c r="P11" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>2</v>
+      </c>
+      <c r="R11" s="3">
+        <f>P11*$C$7-Q11*$C$8</f>
+        <v>60</v>
+      </c>
+      <c r="S11" s="33">
+        <f>SUMPRODUCT(R11:R15,M11:M15)</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B12" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="43">
+        <v>14</v>
+      </c>
+      <c r="J12" s="36"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="39">
+        <f t="shared" ref="L12:L15" si="4">E6</f>
+        <v>12</v>
+      </c>
+      <c r="M12" s="35">
+        <f t="shared" ref="M12:M15" si="5">$F6/SUM($F$5:$F$9)</f>
+        <v>0.2</v>
+      </c>
+      <c r="N12" s="3">
+        <v>12</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" ref="O12:O15" si="6">E6</f>
+        <v>12</v>
+      </c>
+      <c r="P12" s="3">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <f t="shared" ref="R12:R15" si="7">P12*$C$7-Q12*$C$8</f>
+        <v>120</v>
+      </c>
+      <c r="S12" s="33"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="39">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="M13" s="35">
+        <f t="shared" si="5"/>
+        <v>0.3</v>
+      </c>
+      <c r="N13" s="3">
+        <v>12</v>
+      </c>
+      <c r="O13" s="3">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="P13" s="3">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+      <c r="S13" s="33"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B14" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="45">
+        <v>116</v>
+      </c>
+      <c r="J14" s="36"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="39">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="M14" s="35">
+        <f t="shared" si="5"/>
+        <v>0.3</v>
+      </c>
+      <c r="N14" s="3">
+        <v>12</v>
+      </c>
+      <c r="O14" s="3">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="P14" s="3">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+      <c r="S14" s="33"/>
+    </row>
+    <row r="15" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="39">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="M15" s="35">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="N15" s="3">
+        <v>12</v>
+      </c>
+      <c r="O15" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="P15" s="3">
+        <v>12</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+      <c r="S15" s="33"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="J16" s="36"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="40"/>
+    </row>
+    <row r="17" spans="10:19" x14ac:dyDescent="0.35">
+      <c r="J17" s="36"/>
+      <c r="K17" s="38">
+        <v>14</v>
+      </c>
+      <c r="L17" s="40"/>
+      <c r="M17" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="N17" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="O17" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="P17" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q17" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="R17" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="S17" s="48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="10:19" x14ac:dyDescent="0.35">
+      <c r="J18" s="36"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="39">
+        <f>E5</f>
+        <v>10</v>
+      </c>
+      <c r="M18" s="35">
+        <f>$F5/SUM($F$5:$F$9)</f>
+        <v>0.1</v>
+      </c>
+      <c r="N18" s="3">
+        <v>14</v>
+      </c>
+      <c r="O18" s="3">
+        <f>E5</f>
+        <v>10</v>
+      </c>
+      <c r="P18" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="3">
+        <f>N18-P18</f>
+        <v>4</v>
+      </c>
+      <c r="R18" s="3">
+        <f>P18*$C$7-Q18*$C$8</f>
+        <v>20</v>
+      </c>
+      <c r="S18" s="32">
+        <f>SUMPRODUCT(R18:R22,M18:M22)</f>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="10:19" x14ac:dyDescent="0.35">
+      <c r="J19" s="36"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="39">
+        <f t="shared" ref="L19:L22" si="8">E6</f>
+        <v>12</v>
+      </c>
+      <c r="M19" s="35">
+        <f t="shared" ref="M19:M22" si="9">$F6/SUM($F$5:$F$9)</f>
+        <v>0.2</v>
+      </c>
+      <c r="N19" s="3">
+        <v>14</v>
+      </c>
+      <c r="O19" s="3">
+        <f t="shared" ref="O19:O22" si="10">E6</f>
+        <v>12</v>
+      </c>
+      <c r="P19" s="3">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="3">
+        <f>N19-P19</f>
+        <v>2</v>
+      </c>
+      <c r="R19" s="3">
+        <f t="shared" ref="R19:R22" si="11">P19*$C$7-Q19*$C$8</f>
+        <v>80</v>
+      </c>
+      <c r="S19" s="32"/>
+    </row>
+    <row r="20" spans="10:19" x14ac:dyDescent="0.35">
+      <c r="J20" s="36"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="39">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="M20" s="35">
+        <f t="shared" si="9"/>
+        <v>0.3</v>
+      </c>
+      <c r="N20" s="3">
+        <v>14</v>
+      </c>
+      <c r="O20" s="3">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="P20" s="3">
+        <v>14</v>
+      </c>
+      <c r="Q20" s="3">
+        <f t="shared" ref="Q19:Q22" si="12">N20-P20</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <f t="shared" si="11"/>
+        <v>140</v>
+      </c>
+      <c r="S20" s="32"/>
+    </row>
+    <row r="21" spans="10:19" x14ac:dyDescent="0.35">
+      <c r="J21" s="36"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="39">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="M21" s="35">
+        <f t="shared" si="9"/>
+        <v>0.3</v>
+      </c>
+      <c r="N21" s="3">
+        <v>14</v>
+      </c>
+      <c r="O21" s="3">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="P21" s="3">
+        <v>14</v>
+      </c>
+      <c r="Q21" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
+        <f t="shared" si="11"/>
+        <v>140</v>
+      </c>
+      <c r="S21" s="32"/>
+    </row>
+    <row r="22" spans="10:19" x14ac:dyDescent="0.35">
+      <c r="J22" s="36"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="39">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="M22" s="35">
+        <f t="shared" si="9"/>
+        <v>0.1</v>
+      </c>
+      <c r="N22" s="3">
+        <v>14</v>
+      </c>
+      <c r="O22" s="3">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="P22" s="3">
+        <v>14</v>
+      </c>
+      <c r="Q22" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <f t="shared" si="11"/>
+        <v>140</v>
+      </c>
+      <c r="S22" s="32"/>
+    </row>
+    <row r="23" spans="10:19" x14ac:dyDescent="0.35">
+      <c r="J23" s="36"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="40"/>
+    </row>
+    <row r="24" spans="10:19" x14ac:dyDescent="0.35">
+      <c r="J24" s="36"/>
+      <c r="K24" s="38">
+        <v>16</v>
+      </c>
+      <c r="L24" s="40"/>
+      <c r="M24" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="N24" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="O24" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="P24" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q24" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="R24" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="S24" s="48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="10:19" x14ac:dyDescent="0.35">
+      <c r="J25" s="36"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="39">
+        <f>E5</f>
+        <v>10</v>
+      </c>
+      <c r="M25" s="35">
+        <f>$F5/SUM($F$5:$F$9)</f>
+        <v>0.1</v>
+      </c>
+      <c r="N25" s="3">
+        <v>16</v>
+      </c>
+      <c r="O25" s="3">
+        <f>E5</f>
+        <v>10</v>
+      </c>
+      <c r="P25" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="3">
+        <f>N25-P25</f>
+        <v>6</v>
+      </c>
+      <c r="R25" s="3">
+        <f>P25*$C$7-Q25*$C$8</f>
+        <v>-20</v>
+      </c>
+      <c r="S25" s="31">
+        <f>SUMPRODUCT(R25:R29,M25:M29)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="10:19" x14ac:dyDescent="0.35">
+      <c r="J26" s="36"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="39">
+        <f t="shared" ref="L26:L29" si="13">E6</f>
+        <v>12</v>
+      </c>
+      <c r="M26" s="35">
+        <f t="shared" ref="M26:M29" si="14">$F6/SUM($F$5:$F$9)</f>
+        <v>0.2</v>
+      </c>
+      <c r="N26" s="3">
+        <v>16</v>
+      </c>
+      <c r="O26" s="3">
+        <f t="shared" ref="O26:O29" si="15">E6</f>
+        <v>12</v>
+      </c>
+      <c r="P26" s="3">
+        <v>12</v>
+      </c>
+      <c r="Q26" s="3">
+        <f t="shared" ref="Q26:Q29" si="16">N26-P26</f>
+        <v>4</v>
+      </c>
+      <c r="R26" s="3">
+        <f t="shared" ref="R26:R29" si="17">P26*$C$7-Q26*$C$8</f>
+        <v>40</v>
+      </c>
+      <c r="S26" s="31"/>
+    </row>
+    <row r="27" spans="10:19" x14ac:dyDescent="0.35">
+      <c r="J27" s="36"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="39">
+        <f t="shared" si="13"/>
+        <v>14</v>
+      </c>
+      <c r="M27" s="35">
+        <f t="shared" si="14"/>
+        <v>0.3</v>
+      </c>
+      <c r="N27" s="3">
+        <v>16</v>
+      </c>
+      <c r="O27" s="3">
+        <f t="shared" si="15"/>
+        <v>14</v>
+      </c>
+      <c r="P27" s="3">
+        <v>14</v>
+      </c>
+      <c r="Q27" s="3">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="R27" s="3">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="S27" s="31"/>
+    </row>
+    <row r="28" spans="10:19" x14ac:dyDescent="0.35">
+      <c r="J28" s="36"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="39">
+        <f t="shared" si="13"/>
+        <v>16</v>
+      </c>
+      <c r="M28" s="35">
+        <f t="shared" si="14"/>
+        <v>0.3</v>
+      </c>
+      <c r="N28" s="3">
+        <v>16</v>
+      </c>
+      <c r="O28" s="3">
+        <f t="shared" si="15"/>
+        <v>16</v>
+      </c>
+      <c r="P28" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q28" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <f t="shared" si="17"/>
+        <v>160</v>
+      </c>
+      <c r="S28" s="31"/>
+    </row>
+    <row r="29" spans="10:19" x14ac:dyDescent="0.35">
+      <c r="J29" s="36"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="39">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="M29" s="35">
+        <f t="shared" si="14"/>
+        <v>0.1</v>
+      </c>
+      <c r="N29" s="3">
+        <v>16</v>
+      </c>
+      <c r="O29" s="3">
+        <f t="shared" si="15"/>
+        <v>18</v>
+      </c>
+      <c r="P29" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q29" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <f t="shared" si="17"/>
+        <v>160</v>
+      </c>
+      <c r="S29" s="31"/>
+    </row>
+    <row r="30" spans="10:19" x14ac:dyDescent="0.35">
+      <c r="J30" s="36"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="40"/>
+    </row>
+    <row r="31" spans="10:19" x14ac:dyDescent="0.35">
+      <c r="J31" s="36"/>
+      <c r="K31" s="38">
+        <v>18</v>
+      </c>
+      <c r="L31" s="40"/>
+      <c r="M31" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="N31" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="O31" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="P31" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q31" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="R31" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="S31" s="48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="10:19" x14ac:dyDescent="0.35">
+      <c r="J32" s="36"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="39">
+        <f>E5</f>
+        <v>10</v>
+      </c>
+      <c r="M32" s="35">
+        <f>$F5/SUM($F$5:$F$9)</f>
+        <v>0.1</v>
+      </c>
+      <c r="N32" s="3">
+        <v>18</v>
+      </c>
+      <c r="O32" s="3">
+        <f>E5</f>
+        <v>10</v>
+      </c>
+      <c r="P32" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="3">
+        <f>N32-P32</f>
+        <v>8</v>
+      </c>
+      <c r="R32" s="3">
+        <f>P32*$C$7-Q32*$C$8</f>
+        <v>-60</v>
+      </c>
+      <c r="S32" s="31">
+        <f>SUMPRODUCT(R32:R36,M32:M36)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="J33" s="36"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="39">
+        <f t="shared" ref="L33:L36" si="18">E6</f>
+        <v>12</v>
+      </c>
+      <c r="M33" s="35">
+        <f t="shared" ref="M33:M36" si="19">$F6/SUM($F$5:$F$9)</f>
+        <v>0.2</v>
+      </c>
+      <c r="N33" s="3">
+        <v>18</v>
+      </c>
+      <c r="O33" s="3">
+        <f t="shared" ref="O33:O36" si="20">E6</f>
+        <v>12</v>
+      </c>
+      <c r="P33" s="3">
+        <v>12</v>
+      </c>
+      <c r="Q33" s="3">
+        <f t="shared" ref="Q33:Q36" si="21">N33-P33</f>
+        <v>6</v>
+      </c>
+      <c r="R33" s="3">
+        <f t="shared" ref="R33:R36" si="22">P33*$C$7-Q33*$C$8</f>
+        <v>0</v>
+      </c>
+      <c r="S33" s="31"/>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="J34" s="36"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="39">
+        <f t="shared" si="18"/>
+        <v>14</v>
+      </c>
+      <c r="M34" s="35">
+        <f t="shared" si="19"/>
+        <v>0.3</v>
+      </c>
+      <c r="N34" s="3">
+        <v>18</v>
+      </c>
+      <c r="O34" s="3">
+        <f t="shared" si="20"/>
+        <v>14</v>
+      </c>
+      <c r="P34" s="3">
+        <v>14</v>
+      </c>
+      <c r="Q34" s="3">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="R34" s="3">
+        <f t="shared" si="22"/>
+        <v>60</v>
+      </c>
+      <c r="S34" s="31"/>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="J35" s="36"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="39">
+        <f t="shared" si="18"/>
+        <v>16</v>
+      </c>
+      <c r="M35" s="35">
+        <f t="shared" si="19"/>
+        <v>0.3</v>
+      </c>
+      <c r="N35" s="3">
+        <v>18</v>
+      </c>
+      <c r="O35" s="3">
+        <f t="shared" si="20"/>
+        <v>16</v>
+      </c>
+      <c r="P35" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q35" s="3">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="R35" s="3">
+        <f t="shared" si="22"/>
+        <v>120</v>
+      </c>
+      <c r="S35" s="31"/>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="J36" s="36"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="39">
+        <f t="shared" si="18"/>
+        <v>18</v>
+      </c>
+      <c r="M36" s="35">
+        <f t="shared" si="19"/>
+        <v>0.1</v>
+      </c>
+      <c r="N36" s="3">
+        <v>18</v>
+      </c>
+      <c r="O36" s="3">
+        <f t="shared" si="20"/>
+        <v>18</v>
+      </c>
+      <c r="P36" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q36" s="3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="3">
+        <f t="shared" si="22"/>
+        <v>180</v>
+      </c>
+      <c r="S36" s="31"/>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B39" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B41" s="3"/>
+      <c r="C41" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="J41" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="K41" s="38">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3"/>
+      <c r="M41" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="N41" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O41" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="P41" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q41" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="R41" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="S41" s="48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B42" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="9">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E42" s="3">
+        <v>100</v>
+      </c>
+      <c r="F42" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="J42" s="36"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="39">
+        <f>E42</f>
+        <v>100</v>
+      </c>
+      <c r="M42" s="50">
+        <f>$F$42</f>
+        <v>0.2</v>
+      </c>
+      <c r="N42" s="3">
+        <v>100</v>
+      </c>
+      <c r="O42" s="3">
+        <f>$E$42</f>
+        <v>100</v>
+      </c>
+      <c r="P42" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q42" s="3">
+        <f>N42-P42</f>
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <f>P42*$C$45-Q42*$C$46</f>
+        <v>65</v>
+      </c>
+      <c r="S42" s="31">
+        <f>SUMPRODUCT(R42:R46,M42:M46)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B43" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="E43" s="3">
+        <v>150</v>
+      </c>
+      <c r="F43" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="J43" s="36"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="39">
+        <f t="shared" ref="L43:L46" si="23">E43</f>
+        <v>150</v>
+      </c>
+      <c r="M43" s="50">
+        <f>$F$43</f>
+        <v>0.25</v>
+      </c>
+      <c r="N43" s="3">
+        <v>100</v>
+      </c>
+      <c r="O43" s="3">
+        <f>$E$43</f>
+        <v>150</v>
+      </c>
+      <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
+        <f t="shared" ref="Q43:Q46" si="24">N43-P43</f>
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <f t="shared" ref="R43:R46" si="25">P43*$C$45-Q43*$C$46</f>
+        <v>65</v>
+      </c>
+      <c r="S43" s="31"/>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B44" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="E44" s="3">
+        <v>200</v>
+      </c>
+      <c r="F44" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="J44" s="36"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="39">
+        <f t="shared" si="23"/>
+        <v>200</v>
+      </c>
+      <c r="M44" s="50">
+        <f>$F$44</f>
+        <v>0.3</v>
+      </c>
+      <c r="N44" s="3">
+        <v>100</v>
+      </c>
+      <c r="O44" s="3">
+        <f>$E$44</f>
+        <v>200</v>
+      </c>
+      <c r="P44" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q44" s="3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <f t="shared" si="25"/>
+        <v>65</v>
+      </c>
+      <c r="S44" s="31"/>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B45" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="9">
+        <v>0.65</v>
+      </c>
+      <c r="E45" s="3">
+        <v>250</v>
+      </c>
+      <c r="F45" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="J45" s="36"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="39">
+        <f t="shared" si="23"/>
+        <v>250</v>
+      </c>
+      <c r="M45" s="50">
+        <f>$F$45</f>
+        <v>0.15</v>
+      </c>
+      <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
+        <f>$E$45</f>
+        <v>250</v>
+      </c>
+      <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <f t="shared" si="25"/>
+        <v>65</v>
+      </c>
+      <c r="S45" s="31"/>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B46" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="E46" s="3">
+        <v>300</v>
+      </c>
+      <c r="F46" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="J46" s="36"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="39">
+        <f t="shared" si="23"/>
+        <v>300</v>
+      </c>
+      <c r="M46" s="50">
+        <f>$F$46</f>
+        <v>0.1</v>
+      </c>
+      <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
+        <f>$E$46</f>
+        <v>300</v>
+      </c>
+      <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <f t="shared" si="25"/>
+        <v>65</v>
+      </c>
+      <c r="S46" s="31"/>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="J47" s="36"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J48" s="36"/>
+      <c r="K48" s="38">
+        <v>150</v>
+      </c>
+      <c r="L48" s="3"/>
+      <c r="M48" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="N48" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O48" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="P48" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q48" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="R48" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="S48" s="48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="52">
+        <v>200</v>
+      </c>
+      <c r="J49" s="36"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="39">
+        <f>$E$42</f>
+        <v>100</v>
+      </c>
+      <c r="M49" s="50">
+        <f>$F$42</f>
+        <v>0.2</v>
+      </c>
+      <c r="N49" s="3">
+        <v>150</v>
+      </c>
+      <c r="O49" s="3">
+        <f>$E$42</f>
+        <v>100</v>
+      </c>
+      <c r="P49" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q49" s="3">
+        <f>N49-P49</f>
+        <v>50</v>
+      </c>
+      <c r="R49" s="3">
+        <f>P49*$C$45-Q49*$C$46</f>
+        <v>50</v>
+      </c>
+      <c r="S49" s="31">
+        <f>SUMPRODUCT(R49:R53,M49:M53)</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B50" s="53"/>
+      <c r="C50" s="54"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="39">
+        <f>$E$43</f>
+        <v>150</v>
+      </c>
+      <c r="M50" s="50">
+        <f>$F$43</f>
+        <v>0.25</v>
+      </c>
+      <c r="N50" s="3">
+        <v>150</v>
+      </c>
+      <c r="O50" s="3">
+        <f>$E$43</f>
+        <v>150</v>
+      </c>
+      <c r="P50" s="3">
+        <v>150</v>
+      </c>
+      <c r="Q50" s="3">
+        <f t="shared" ref="Q50:Q53" si="26">N50-P50</f>
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <f t="shared" ref="R50:R53" si="27">P50*$C$45-Q50*$C$46</f>
+        <v>97.5</v>
+      </c>
+      <c r="S50" s="31"/>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B51" s="53"/>
+      <c r="C51" s="54"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="39">
+        <f>$E$44</f>
+        <v>200</v>
+      </c>
+      <c r="M51" s="50">
+        <f>$F$44</f>
+        <v>0.3</v>
+      </c>
+      <c r="N51" s="3">
+        <v>150</v>
+      </c>
+      <c r="O51" s="3">
+        <f>$E$44</f>
+        <v>200</v>
+      </c>
+      <c r="P51" s="3">
+        <v>150</v>
+      </c>
+      <c r="Q51" s="3">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <f>P51*$C$45-Q51*$C$46</f>
+        <v>97.5</v>
+      </c>
+      <c r="S51" s="31"/>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B52" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" s="54">
+        <f>S56</f>
+        <v>99.125</v>
+      </c>
+      <c r="J52" s="36"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="39">
+        <f>$E$45</f>
+        <v>250</v>
+      </c>
+      <c r="M52" s="50">
+        <f>$F$45</f>
+        <v>0.15</v>
+      </c>
+      <c r="N52" s="3">
+        <v>150</v>
+      </c>
+      <c r="O52" s="3">
+        <f>$E$45</f>
+        <v>250</v>
+      </c>
+      <c r="P52" s="3">
+        <v>150</v>
+      </c>
+      <c r="Q52" s="3">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <f t="shared" si="27"/>
+        <v>97.5</v>
+      </c>
+      <c r="S52" s="31"/>
+    </row>
+    <row r="53" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="55"/>
+      <c r="C53" s="56"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="39">
+        <f>$E$46</f>
+        <v>300</v>
+      </c>
+      <c r="M53" s="50">
+        <f>$F$46</f>
+        <v>0.1</v>
+      </c>
+      <c r="N53" s="3">
+        <v>150</v>
+      </c>
+      <c r="O53" s="3">
+        <f>$E$46</f>
+        <v>300</v>
+      </c>
+      <c r="P53" s="3">
+        <v>150</v>
+      </c>
+      <c r="Q53" s="3">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <f t="shared" si="27"/>
+        <v>97.5</v>
+      </c>
+      <c r="S53" s="31"/>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="J54" s="36"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="J55" s="36"/>
+      <c r="K55" s="38">
+        <v>200</v>
+      </c>
+      <c r="L55" s="3"/>
+      <c r="M55" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="N55" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O55" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="P55" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q55" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="R55" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="S55" s="48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="J56" s="36"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="39">
+        <f>$E$42</f>
+        <v>100</v>
+      </c>
+      <c r="M56" s="50">
+        <f>$F$42</f>
+        <v>0.2</v>
+      </c>
+      <c r="N56" s="3">
+        <v>200</v>
+      </c>
+      <c r="O56" s="3">
+        <f>$E$42</f>
+        <v>100</v>
+      </c>
+      <c r="P56" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q56" s="3">
+        <f>N56-P56</f>
+        <v>100</v>
+      </c>
+      <c r="R56" s="3">
+        <f>P56*$C$45-Q56*$C$46</f>
+        <v>35</v>
+      </c>
+      <c r="S56" s="32">
+        <f>SUMPRODUCT(R56:R60,M56:M60)</f>
+        <v>99.125</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="J57" s="36"/>
+      <c r="K57" s="38"/>
+      <c r="L57" s="39">
+        <f>$E$43</f>
+        <v>150</v>
+      </c>
+      <c r="M57" s="50">
+        <f>$F$43</f>
+        <v>0.25</v>
+      </c>
+      <c r="N57" s="3">
+        <v>200</v>
+      </c>
+      <c r="O57" s="3">
+        <f>$E$43</f>
+        <v>150</v>
+      </c>
+      <c r="P57" s="3">
+        <v>150</v>
+      </c>
+      <c r="Q57" s="3">
+        <f t="shared" ref="Q57:Q60" si="28">N57-P57</f>
+        <v>50</v>
+      </c>
+      <c r="R57" s="3">
+        <f t="shared" ref="R57" si="29">P57*$C$45-Q57*$C$46</f>
+        <v>82.5</v>
+      </c>
+      <c r="S57" s="32"/>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="J58" s="36"/>
+      <c r="K58" s="38"/>
+      <c r="L58" s="39">
+        <f>$E$44</f>
+        <v>200</v>
+      </c>
+      <c r="M58" s="50">
+        <f>$F$44</f>
+        <v>0.3</v>
+      </c>
+      <c r="N58" s="3">
+        <v>200</v>
+      </c>
+      <c r="O58" s="3">
+        <f>$E$44</f>
+        <v>200</v>
+      </c>
+      <c r="P58" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q58" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <f>P58*$C$45-Q58*$C$46</f>
+        <v>130</v>
+      </c>
+      <c r="S58" s="32"/>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="J59" s="36"/>
+      <c r="K59" s="38"/>
+      <c r="L59" s="39">
+        <f>$E$45</f>
+        <v>250</v>
+      </c>
+      <c r="M59" s="50">
+        <f>$F$45</f>
+        <v>0.15</v>
+      </c>
+      <c r="N59" s="3">
+        <v>200</v>
+      </c>
+      <c r="O59" s="3">
+        <f>$E$45</f>
+        <v>250</v>
+      </c>
+      <c r="P59" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q59" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <f t="shared" ref="R59:R60" si="30">P59*$C$45-Q59*$C$46</f>
+        <v>130</v>
+      </c>
+      <c r="S59" s="32"/>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="J60" s="36"/>
+      <c r="K60" s="38"/>
+      <c r="L60" s="39">
+        <f>$E$46</f>
+        <v>300</v>
+      </c>
+      <c r="M60" s="50">
+        <f>$F$46</f>
+        <v>0.1</v>
+      </c>
+      <c r="N60" s="3">
+        <v>200</v>
+      </c>
+      <c r="O60" s="3">
+        <f>$E$46</f>
+        <v>300</v>
+      </c>
+      <c r="P60" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q60" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <f t="shared" si="30"/>
+        <v>130</v>
+      </c>
+      <c r="S60" s="32"/>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="J61" s="36"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="J62" s="36"/>
+      <c r="K62" s="38">
+        <v>250</v>
+      </c>
+      <c r="L62" s="3"/>
+      <c r="M62" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="N62" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O62" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="P62" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q62" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="R62" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="S62" s="48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="J63" s="36"/>
+      <c r="K63" s="38"/>
+      <c r="L63" s="39">
+        <f>$E$42</f>
+        <v>100</v>
+      </c>
+      <c r="M63" s="50">
+        <f>$F$42</f>
+        <v>0.2</v>
+      </c>
+      <c r="N63" s="3">
+        <v>250</v>
+      </c>
+      <c r="O63" s="3">
+        <f>$E$42</f>
+        <v>100</v>
+      </c>
+      <c r="P63" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q63" s="3">
+        <f>N63-P63</f>
+        <v>150</v>
+      </c>
+      <c r="R63" s="3">
+        <f>P63*$C$45-Q63*$C$46</f>
+        <v>20</v>
+      </c>
+      <c r="S63" s="31">
+        <f>SUMPRODUCT(R63:R67,M63:M67)</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="J64" s="36"/>
+      <c r="K64" s="38"/>
+      <c r="L64" s="39">
+        <f>$E$43</f>
+        <v>150</v>
+      </c>
+      <c r="M64" s="50">
+        <f>$F$43</f>
+        <v>0.25</v>
+      </c>
+      <c r="N64" s="3">
+        <v>250</v>
+      </c>
+      <c r="O64" s="3">
+        <f>$E$43</f>
+        <v>150</v>
+      </c>
+      <c r="P64" s="3">
+        <v>150</v>
+      </c>
+      <c r="Q64" s="3">
+        <f t="shared" ref="Q64:Q67" si="31">N64-P64</f>
+        <v>100</v>
+      </c>
+      <c r="R64" s="3">
+        <f t="shared" ref="R64" si="32">P64*$C$45-Q64*$C$46</f>
+        <v>67.5</v>
+      </c>
+      <c r="S64" s="31"/>
+    </row>
+    <row r="65" spans="10:19" x14ac:dyDescent="0.35">
+      <c r="J65" s="36"/>
+      <c r="K65" s="38"/>
+      <c r="L65" s="39">
+        <f>$E$44</f>
+        <v>200</v>
+      </c>
+      <c r="M65" s="50">
+        <f>$F$44</f>
+        <v>0.3</v>
+      </c>
+      <c r="N65" s="3">
+        <v>250</v>
+      </c>
+      <c r="O65" s="3">
+        <f>$E$44</f>
+        <v>200</v>
+      </c>
+      <c r="P65" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q65" s="3">
+        <f t="shared" si="31"/>
+        <v>50</v>
+      </c>
+      <c r="R65" s="3">
+        <f>P65*$C$45-Q65*$C$46</f>
+        <v>115</v>
+      </c>
+      <c r="S65" s="31"/>
+    </row>
+    <row r="66" spans="10:19" x14ac:dyDescent="0.35">
+      <c r="J66" s="36"/>
+      <c r="K66" s="38"/>
+      <c r="L66" s="39">
+        <f>$E$45</f>
+        <v>250</v>
+      </c>
+      <c r="M66" s="50">
+        <f>$F$45</f>
+        <v>0.15</v>
+      </c>
+      <c r="N66" s="3">
+        <v>250</v>
+      </c>
+      <c r="O66" s="3">
+        <f>$E$45</f>
+        <v>250</v>
+      </c>
+      <c r="P66" s="3">
+        <v>250</v>
+      </c>
+      <c r="Q66" s="3">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="R66" s="3">
+        <f t="shared" ref="R66:R67" si="33">P66*$C$45-Q66*$C$46</f>
+        <v>162.5</v>
+      </c>
+      <c r="S66" s="31"/>
+    </row>
+    <row r="67" spans="10:19" x14ac:dyDescent="0.35">
+      <c r="J67" s="36"/>
+      <c r="K67" s="38"/>
+      <c r="L67" s="39">
+        <f>$E$46</f>
+        <v>300</v>
+      </c>
+      <c r="M67" s="50">
+        <f>$F$46</f>
+        <v>0.1</v>
+      </c>
+      <c r="N67" s="3">
+        <v>250</v>
+      </c>
+      <c r="O67" s="3">
+        <f>$E$46</f>
+        <v>300</v>
+      </c>
+      <c r="P67" s="3">
+        <v>250</v>
+      </c>
+      <c r="Q67" s="3">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="R67" s="3">
+        <f t="shared" si="33"/>
+        <v>162.5</v>
+      </c>
+      <c r="S67" s="31"/>
+    </row>
+    <row r="68" spans="10:19" x14ac:dyDescent="0.35">
+      <c r="J68" s="36"/>
+      <c r="K68" s="37"/>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="10:19" x14ac:dyDescent="0.35">
+      <c r="J69" s="36"/>
+      <c r="K69" s="38">
+        <v>300</v>
+      </c>
+      <c r="L69" s="3"/>
+      <c r="M69" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="N69" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O69" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="P69" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q69" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="R69" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="S69" s="48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="70" spans="10:19" x14ac:dyDescent="0.35">
+      <c r="J70" s="36"/>
+      <c r="K70" s="38"/>
+      <c r="L70" s="39">
+        <f>$E$42</f>
+        <v>100</v>
+      </c>
+      <c r="M70" s="50">
+        <f>$F$42</f>
+        <v>0.2</v>
+      </c>
+      <c r="N70" s="3">
+        <v>300</v>
+      </c>
+      <c r="O70" s="3">
+        <f>$E$42</f>
+        <v>100</v>
+      </c>
+      <c r="P70" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q70" s="3">
+        <f>N70-P70</f>
+        <v>200</v>
+      </c>
+      <c r="R70" s="3">
+        <f>P70*$C$45-Q70*$C$46</f>
+        <v>5</v>
+      </c>
+      <c r="S70" s="31">
+        <f>SUMPRODUCT(R70:R74,M70:M74)</f>
+        <v>85.75</v>
+      </c>
+    </row>
+    <row r="71" spans="10:19" x14ac:dyDescent="0.35">
+      <c r="J71" s="36"/>
+      <c r="K71" s="38"/>
+      <c r="L71" s="39">
+        <f>$E$43</f>
+        <v>150</v>
+      </c>
+      <c r="M71" s="50">
+        <f>$F$43</f>
+        <v>0.25</v>
+      </c>
+      <c r="N71" s="3">
+        <v>300</v>
+      </c>
+      <c r="O71" s="3">
+        <f>$E$43</f>
+        <v>150</v>
+      </c>
+      <c r="P71" s="3">
+        <v>150</v>
+      </c>
+      <c r="Q71" s="3">
+        <f t="shared" ref="Q71:Q74" si="34">N71-P71</f>
+        <v>150</v>
+      </c>
+      <c r="R71" s="3">
+        <f t="shared" ref="R71" si="35">P71*$C$45-Q71*$C$46</f>
+        <v>52.5</v>
+      </c>
+      <c r="S71" s="31"/>
+    </row>
+    <row r="72" spans="10:19" x14ac:dyDescent="0.35">
+      <c r="J72" s="36"/>
+      <c r="K72" s="38"/>
+      <c r="L72" s="39">
+        <f>$E$44</f>
+        <v>200</v>
+      </c>
+      <c r="M72" s="50">
+        <f>$F$44</f>
+        <v>0.3</v>
+      </c>
+      <c r="N72" s="3">
+        <v>300</v>
+      </c>
+      <c r="O72" s="3">
+        <f>$E$44</f>
+        <v>200</v>
+      </c>
+      <c r="P72" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q72" s="3">
+        <f t="shared" si="34"/>
+        <v>100</v>
+      </c>
+      <c r="R72" s="3">
+        <f>P72*$C$45-Q72*$C$46</f>
+        <v>100</v>
+      </c>
+      <c r="S72" s="31"/>
+    </row>
+    <row r="73" spans="10:19" x14ac:dyDescent="0.35">
+      <c r="J73" s="36"/>
+      <c r="K73" s="38"/>
+      <c r="L73" s="39">
+        <f>$E$45</f>
+        <v>250</v>
+      </c>
+      <c r="M73" s="50">
+        <f>$F$45</f>
+        <v>0.15</v>
+      </c>
+      <c r="N73" s="3">
+        <v>300</v>
+      </c>
+      <c r="O73" s="3">
+        <f>$E$45</f>
+        <v>250</v>
+      </c>
+      <c r="P73" s="3">
+        <v>250</v>
+      </c>
+      <c r="Q73" s="3">
+        <f t="shared" si="34"/>
+        <v>50</v>
+      </c>
+      <c r="R73" s="3">
+        <f t="shared" ref="R73:R74" si="36">P73*$C$45-Q73*$C$46</f>
+        <v>147.5</v>
+      </c>
+      <c r="S73" s="31"/>
+    </row>
+    <row r="74" spans="10:19" x14ac:dyDescent="0.35">
+      <c r="J74" s="36"/>
+      <c r="K74" s="38"/>
+      <c r="L74" s="39">
+        <f>$E$46</f>
+        <v>300</v>
+      </c>
+      <c r="M74" s="50">
+        <f>$F$46</f>
+        <v>0.1</v>
+      </c>
+      <c r="N74" s="3">
+        <v>300</v>
+      </c>
+      <c r="O74" s="3">
+        <f>$E$46</f>
+        <v>300</v>
+      </c>
+      <c r="P74" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q74" s="3">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <f t="shared" si="36"/>
+        <v>195</v>
+      </c>
+      <c r="S74" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="K62:K67"/>
+    <mergeCell ref="K69:K74"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="S42:S46"/>
+    <mergeCell ref="S49:S53"/>
+    <mergeCell ref="S56:S60"/>
+    <mergeCell ref="S63:S67"/>
+    <mergeCell ref="S70:S74"/>
+    <mergeCell ref="J41:J74"/>
+    <mergeCell ref="K41:K46"/>
+    <mergeCell ref="K48:K53"/>
+    <mergeCell ref="K55:K60"/>
+    <mergeCell ref="K24:K29"/>
+    <mergeCell ref="K31:K36"/>
+    <mergeCell ref="K3:K8"/>
+    <mergeCell ref="K10:K15"/>
+    <mergeCell ref="K17:K22"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="S4:S8"/>
+    <mergeCell ref="S11:S15"/>
+    <mergeCell ref="S18:S22"/>
+    <mergeCell ref="S25:S29"/>
+    <mergeCell ref="S32:S36"/>
+    <mergeCell ref="J3:J36"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>